--- a/reports/reportCardNewTemplate.xlsx
+++ b/reports/reportCardNewTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp8.1\htdocs\sunbeam_app\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp8.2\htdocs\sunbeam_app\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT DATA" sheetId="1" r:id="rId1"/>
@@ -1729,6 +1729,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1750,14 +1751,155 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1786,149 +1928,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1981,7 +1982,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2513,76 +2513,76 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="37" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" style="7" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="109" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="68" t="s">
         <v>159</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="110" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="104"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="68" t="s">
         <v>8</v>
       </c>
@@ -2592,22 +2592,22 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>80</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>101</v>
       </c>
@@ -2633,18 +2633,18 @@
       <c r="E8" s="76"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106" t="s">
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>66</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>1</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="44">
         <v>2</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>3</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>4</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="44">
         <v>5</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>6</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="44">
         <v>7</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="44">
         <v>8</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>9</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="39"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="44">
         <v>10</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="44">
         <v>11</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
         <v>12</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
         <v>13</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
         <v>14</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="F24" s="29"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="44">
         <v>15</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="44">
         <v>16</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="44">
         <v>17</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="44">
         <v>18</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
         <v>19</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
         <v>20</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="F30" s="29"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="44">
         <v>21</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="44">
         <v>22</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="F32" s="29"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="44">
         <v>23</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="44">
         <v>24</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="F34" s="29"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="44">
         <v>25</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="44">
         <v>26</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="F36" s="29"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="44">
         <v>27</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="44">
         <v>28</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="F38" s="29"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="44">
         <v>29</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="F39" s="29"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="49">
         <v>30</v>
       </c>
@@ -3093,18 +3093,18 @@
       <c r="F40" s="42"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="106" t="s">
+    <row r="41" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="108"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="109"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="43">
         <v>1</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="44">
         <v>2</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="44">
         <v>3</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="44">
         <v>4</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="44">
         <v>5</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="44">
         <v>6</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="44">
         <v>7</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
         <v>8</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="44">
         <v>9</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44">
         <v>10</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="44">
         <v>11</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="44">
         <v>12</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="F53" s="29"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="44">
         <v>13</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="44">
         <v>14</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="F55" s="29"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="44">
         <v>15</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="F56" s="29"/>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="44">
         <v>16</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="F57" s="29"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="44">
         <v>17</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="F58" s="29"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="44">
         <v>18</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="F59" s="29"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="44">
         <v>19</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="F60" s="29"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="44">
         <v>20</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="F61" s="29"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="44">
         <v>21</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="F62" s="29"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="44">
         <v>22</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="F63" s="29"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="44">
         <v>23</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="F64" s="29"/>
       <c r="G64" s="18"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="44">
         <v>24</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="F65" s="29"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="44">
         <v>25</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="F66" s="29"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="44">
         <v>26</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="F67" s="29"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="44">
         <v>27</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="F68" s="29"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
         <v>28</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="F69" s="29"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="44">
         <v>29</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="F70" s="29"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45">
         <v>30</v>
       </c>
@@ -3579,123 +3579,123 @@
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:I40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="5" width="8.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="109" t="str">
+      <c r="D5" s="110" t="str">
         <f>'INPUT DATA'!E5</f>
         <v>Panabo Central</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164" t="str">
+      <c r="A7" s="117" t="str">
         <f>'INPUT DATA'!C6</f>
         <v>SUNBEAM CHRISTIAN SCHOOL OF PANABO INC.</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="170"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="75">
         <f>'INPUT DATA'!C7</f>
         <v>405592</v>
@@ -3705,32 +3705,32 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="165" t="s">
+    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="12" t="s">
         <v>52</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="161"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="113"/>
       <c r="D11" s="113"/>
       <c r="E11" s="12" t="s">
@@ -3750,10 +3750,10 @@
       <c r="G11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -3777,142 +3777,142 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="144" t="s">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="147"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="149"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="147"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="149"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="147"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="147"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="149"/>
-    </row>
-    <row r="20" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="147"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="149"/>
-    </row>
-    <row r="22" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="129"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="127"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
+    </row>
+    <row r="20" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="129"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
+    </row>
+    <row r="22" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="153" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="153" t="s">
+      <c r="B24" s="134"/>
+      <c r="C24" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157" t="s">
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="154" t="s">
+      <c r="H24" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="157"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
+      <c r="I24" s="137"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="135"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="71" t="s">
         <v>72</v>
       </c>
@@ -3925,15 +3925,15 @@
       <c r="F25" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="158"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="138" t="s">
+      <c r="G25" s="138"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="140"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="139"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -3942,17 +3942,17 @@
         <f>IF(ISERROR(IF(F26="","",ROUND(AVERAGE(C26:F26),0))),"",IF(F26="","",ROUND(AVERAGE(C26:F26),0)))</f>
         <v/>
       </c>
-      <c r="H26" s="140" t="str">
+      <c r="H26" s="143" t="str">
         <f>IF(G26="","",IF(G26&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I26" s="141"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="127" t="s">
+      <c r="I26" s="144"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3961,14 +3961,14 @@
         <f t="shared" ref="G27:G39" si="0">IF(ISERROR(IF(F27="","",ROUND(AVERAGE(C27:F27),0))),"",IF(F27="","",ROUND(AVERAGE(C27:F27),0)))</f>
         <v/>
       </c>
-      <c r="H27" s="142"/>
-      <c r="I27" s="129"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="127" t="s">
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="15"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3977,17 +3977,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="142" t="str">
+      <c r="H28" s="147" t="str">
         <f t="shared" ref="H28:H39" si="1">IF(G28="","",IF(G28&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I28" s="129"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="123" t="s">
+      <c r="I28" s="148"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="124"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="15"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3996,17 +3996,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="143" t="str">
+      <c r="H29" s="151" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I29" s="130"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="I29" s="152"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4015,17 +4015,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="135" t="str">
+      <c r="H30" s="153" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="126"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="136" t="s">
+      <c r="I30" s="154"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="137"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4034,17 +4034,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="135" t="str">
+      <c r="H31" s="153" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I31" s="126"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="127" t="s">
+      <c r="I31" s="154"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="15"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4053,32 +4053,32 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="125" t="str">
+      <c r="H32" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I32" s="126"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="131" t="s">
+      <c r="I32" s="154"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="132"/>
-      <c r="C33" s="69" t="e">
-        <f>AVERAGE(C34:C37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="69" t="e">
-        <f t="shared" ref="D33:F33" si="2">AVERAGE(D34:D37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="69" t="e">
+      <c r="B33" s="159"/>
+      <c r="C33" s="69" t="str">
+        <f>IFERROR(AVERAGE(C34:C37), "")</f>
+        <v/>
+      </c>
+      <c r="D33" s="69" t="str">
+        <f t="shared" ref="D33:F33" si="2">IFERROR(AVERAGE(D34:D37), "")</f>
+        <v/>
+      </c>
+      <c r="E33" s="69" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="69" t="e">
+        <v/>
+      </c>
+      <c r="F33" s="69" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="G33" s="70" t="str">
         <f t="shared" si="0"/>
@@ -4088,13 +4088,13 @@
         <f t="shared" ref="H33" si="3">IF(G33="","",IF(G33&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I33" s="129"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="133" t="s">
+      <c r="I33" s="148"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="134"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="15"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4107,13 +4107,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I34" s="129"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="127" t="s">
+      <c r="I34" s="148"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="15"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4122,17 +4122,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="125" t="str">
+      <c r="H35" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="126"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="123" t="s">
+      <c r="I35" s="154"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="124"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="15"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4141,17 +4141,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="125" t="str">
+      <c r="H36" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I36" s="126"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="127" t="s">
+      <c r="I36" s="154"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="15"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4164,13 +4164,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I37" s="129"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="127" t="s">
+      <c r="I37" s="148"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="15"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4179,17 +4179,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="109" t="str">
+      <c r="H38" s="110" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I38" s="130"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="114" t="s">
+      <c r="I38" s="152"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="115"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="19"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
@@ -4198,17 +4198,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H39" s="116" t="str">
+      <c r="H39" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I39" s="117"/>
+      <c r="I39" s="165"/>
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="119"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="98" t="str">
         <f>IF(ISERROR(IF(C39="","",ROUND(AVERAGE(C26:C33,C38),0))),"",IF(C39="","",ROUND(AVERAGE(C26:C33,C38:C39),0)))</f>
         <v/>
@@ -4225,14 +4225,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G40" s="120" t="str">
+      <c r="G40" s="168" t="str">
         <f>IF(OR(G27="",G28="",G29="",G30="",G31="",G33="",G39="",G38=""),"",AVERAGE(G26:G33,G39))</f>
         <v/>
       </c>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
-    </row>
-    <row r="41" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="169"/>
+      <c r="I40" s="170"/>
+    </row>
+    <row r="41" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4243,109 +4243,109 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="110" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="110"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="110"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="110"/>
+      <c r="H42" s="111"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="109" t="s">
+      <c r="D43" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="109"/>
+      <c r="E43" s="110"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="109" t="s">
+      <c r="G43" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="109"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="109" t="s">
+      <c r="D44" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="109"/>
+      <c r="E44" s="110"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="109" t="s">
+      <c r="G44" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="109"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="109" t="s">
+      <c r="G45" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="109"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="109" t="s">
+      <c r="D46" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="109"/>
+      <c r="E46" s="110"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="109" t="s">
+      <c r="G46" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="109"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="109" t="s">
+      <c r="D47" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="109"/>
+      <c r="E47" s="110"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="109" t="s">
+      <c r="G47" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="109"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4356,7 +4356,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4367,44 +4367,44 @@
       <c r="H49" s="10"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="110" t="s">
+      <c r="F50" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="188" t="s">
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="112"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-    </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="109" t="s">
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
         <v>46</v>
@@ -4412,7 +4412,7 @@
       <c r="H52" s="113"/>
       <c r="I52" s="113"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4436,58 +4436,58 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="111"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="171"/>
       <c r="D55" s="22"/>
-      <c r="F55" s="111" t="s">
+      <c r="F55" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="109"/>
+      <c r="C56" s="110"/>
       <c r="D56" s="7"/>
-      <c r="F56" s="109" t="s">
+      <c r="F56" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="111" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="111"/>
-      <c r="C58" s="111"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
       <c r="D58" s="8"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="109" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4496,6 +4496,69 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -4509,69 +4572,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B51:E51"/>
   </mergeCells>
   <pageMargins left="0.56000000000000005" right="0.5" top="0.34" bottom="0.14000000000000001" header="0.3" footer="0.14000000000000001"/>
   <pageSetup scale="96" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4590,37 +4590,37 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-    </row>
-    <row r="2" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+    </row>
+    <row r="2" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="77"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -4634,7 +4634,7 @@
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
     </row>
-    <row r="3" spans="1:12" s="78" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="78" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="99"/>
       <c r="B3" s="101" t="s">
         <v>160</v>
@@ -4670,7 +4670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>90</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="K4" s="93"/>
       <c r="L4" s="94"/>
     </row>
-    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
         <v>91</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="K5" s="95"/>
       <c r="L5" s="94"/>
     </row>
-    <row r="6" spans="1:12" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81" t="s">
         <v>92</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="K6" s="97"/>
       <c r="L6" s="94"/>
     </row>
-    <row r="7" spans="1:12" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="82"/>
       <c r="B7" s="82"/>
       <c r="C7" s="82"/>
@@ -4732,89 +4732,89 @@
       <c r="K7" s="82"/>
       <c r="L7" s="82"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="176" t="s">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="178"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="179"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
-    </row>
-    <row r="10" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="179"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="181"/>
-    </row>
-    <row r="11" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="184"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="185" t="s">
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="182"/>
+    </row>
+    <row r="10" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="180"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="182"/>
+    </row>
+    <row r="11" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="183"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="185"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="188"/>
       <c r="K13" s="100"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="83"/>
       <c r="J14" s="84"/>
     </row>
-    <row r="15" spans="1:12" s="85" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="171" t="s">
+    <row r="15" spans="1:12" s="85" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="86"/>
       <c r="F15" s="86"/>
       <c r="G15" s="86"/>
@@ -4822,17 +4822,17 @@
       <c r="I15" s="86"/>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="88"/>
       <c r="C16" s="82"/>
       <c r="J16" s="84"/>
     </row>
-    <row r="17" spans="1:12" s="85" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B17" s="171" t="s">
+    <row r="17" spans="1:12" s="85" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="86"/>
       <c r="F17" s="86"/>
       <c r="G17" s="86"/>
@@ -4840,17 +4840,17 @@
       <c r="I17" s="86"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="88"/>
       <c r="C18" s="82"/>
       <c r="J18" s="84"/>
     </row>
-    <row r="19" spans="1:12" s="85" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="171" t="s">
+    <row r="19" spans="1:12" s="85" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B19" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="86"/>
       <c r="F19" s="86"/>
       <c r="G19" s="86"/>
@@ -4858,18 +4858,18 @@
       <c r="I19" s="86"/>
       <c r="J19" s="87"/>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="88"/>
       <c r="C20" s="82"/>
       <c r="D20" s="85"/>
       <c r="J20" s="84"/>
     </row>
-    <row r="21" spans="1:12" s="85" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="171" t="s">
+    <row r="21" spans="1:12" s="85" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B21" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="86"/>
       <c r="F21" s="86"/>
       <c r="G21" s="86"/>
@@ -4877,7 +4877,7 @@
       <c r="I21" s="86"/>
       <c r="J21" s="87"/>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="89"/>
       <c r="C22" s="90"/>
       <c r="D22" s="90"/>
@@ -4888,43 +4888,43 @@
       <c r="I22" s="90"/>
       <c r="J22" s="91"/>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:12" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173" t="s">
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="174"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="174"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="174" t="s">
+      <c r="I33" s="175" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>77</v>
       </c>

--- a/reports/reportCardNewTemplate.xlsx
+++ b/reports/reportCardNewTemplate.xlsx
@@ -1488,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1498,7 +1498,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1751,13 +1750,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1786,150 +1929,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2517,624 +2516,624 @@
   <cols>
     <col min="1" max="1" width="3.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="37" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26" style="7" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="6" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="67" t="s">
         <v>159</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>405592</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>1</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>3</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="43">
         <v>2</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>3</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="43">
         <v>3</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>3</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="43">
         <v>4</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>3</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="43">
         <v>5</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>3</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="43">
         <v>6</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>3</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="43">
         <v>7</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>3</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="43">
         <v>8</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="32">
         <v>3</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="43">
         <v>9</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44">
+      <c r="A20" s="43">
         <v>10</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
+      <c r="A21" s="43">
         <v>11</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
+      <c r="A22" s="43">
         <v>12</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
+      <c r="A23" s="43">
         <v>13</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
+      <c r="A24" s="43">
         <v>14</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+      <c r="A25" s="43">
         <v>15</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="43">
         <v>16</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
+      <c r="A27" s="43">
         <v>17</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+      <c r="A28" s="43">
         <v>18</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="44">
+      <c r="A29" s="43">
         <v>19</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="53"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
+      <c r="A30" s="43">
         <v>20</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="43">
         <v>21</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+      <c r="A32" s="43">
         <v>22</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="53"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="18"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
+      <c r="A33" s="43">
         <v>23</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="44">
+      <c r="A34" s="43">
         <v>24</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="44">
+      <c r="A35" s="43">
         <v>25</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="53"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="44">
+      <c r="A36" s="43">
         <v>26</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="44">
+      <c r="A37" s="43">
         <v>27</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="53"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="44">
+      <c r="A38" s="43">
         <v>28</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="44">
+      <c r="A39" s="43">
         <v>29</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49">
+      <c r="A40" s="48">
         <v>30</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="21"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="109"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="108"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+      <c r="A42" s="42">
         <v>1</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="32">
         <v>3</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="44">
+      <c r="A43" s="43">
         <v>2</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="52" t="s">
         <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3143,21 +3142,21 @@
       <c r="E43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="32">
         <v>3</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
+      <c r="A44" s="43">
         <v>3</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="52" t="s">
         <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3166,21 +3165,21 @@
       <c r="E44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="32">
         <v>3</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="44">
+      <c r="A45" s="43">
         <v>4</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="52" t="s">
         <v>150</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3189,21 +3188,21 @@
       <c r="E45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="32">
         <v>3</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="44">
+      <c r="A46" s="43">
         <v>5</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="52" t="s">
         <v>151</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3212,21 +3211,21 @@
       <c r="E46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="32">
         <v>3</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="44">
+      <c r="A47" s="43">
         <v>6</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="52" t="s">
         <v>144</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3235,21 +3234,21 @@
       <c r="E47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="32">
         <v>3</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
+      <c r="A48" s="43">
         <v>7</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="52" t="s">
         <v>152</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3258,21 +3257,21 @@
       <c r="E48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="33">
+      <c r="F48" s="32">
         <v>3</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
+      <c r="A49" s="43">
         <v>8</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="52" t="s">
         <v>153</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3281,21 +3280,21 @@
       <c r="E49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="33">
+      <c r="F49" s="32">
         <v>3</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
+      <c r="A50" s="43">
         <v>9</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="52" t="s">
         <v>154</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3304,21 +3303,21 @@
       <c r="E50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="32">
         <v>3</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="44">
+      <c r="A51" s="43">
         <v>10</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="52" t="s">
         <v>155</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3327,232 +3326,232 @@
       <c r="E51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="33">
+      <c r="F51" s="32">
         <v>3</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="44">
+      <c r="A52" s="43">
         <v>11</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="53"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="18"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="44">
+      <c r="A53" s="43">
         <v>12</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="53"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="44">
+      <c r="A54" s="43">
         <v>13</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="18"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="44">
+      <c r="A55" s="43">
         <v>14</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="18"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="44">
+      <c r="A56" s="43">
         <v>15</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="18"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="44">
+      <c r="A57" s="43">
         <v>16</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="18"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="44">
+      <c r="A58" s="43">
         <v>17</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="18"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="44">
+      <c r="A59" s="43">
         <v>18</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
+      <c r="A60" s="43">
         <v>19</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="18"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="44">
+      <c r="A61" s="43">
         <v>20</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="18"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="44">
+      <c r="A62" s="43">
         <v>21</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="18"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="44">
+      <c r="A63" s="43">
         <v>22</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="18"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="44">
+      <c r="A64" s="43">
         <v>23</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="18"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="44">
+      <c r="A65" s="43">
         <v>24</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="53"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="18"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="44">
+      <c r="A66" s="43">
         <v>25</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="53"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="18"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="44">
+      <c r="A67" s="43">
         <v>26</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="53"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="18"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="44">
+      <c r="A68" s="43">
         <v>27</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="53"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="18"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="44">
+      <c r="A69" s="43">
         <v>28</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="18"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="44">
+      <c r="A70" s="43">
         <v>29</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="53"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="18"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="45">
+      <c r="A71" s="44">
         <v>30</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="61"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3580,7 +3579,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:I29"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,164 +3596,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="110" t="str">
+      <c r="D5" s="109" t="str">
         <f>'INPUT DATA'!E5</f>
         <v>Panabo Central</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117" t="str">
+      <c r="A7" s="164" t="str">
         <f>'INPUT DATA'!C6</f>
         <v>SUNBEAM CHRISTIAN SCHOOL OF PANABO INC.</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="75">
+      <c r="D8" s="170"/>
+      <c r="E8" s="74">
         <f>'INPUT DATA'!C7</f>
         <v>405592</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="167"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="12" t="s">
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="112"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="113"/>
       <c r="D11" s="113"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="113"/>
@@ -3767,10 +3766,10 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3778,309 +3777,319 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="146"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="129"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="149"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="149"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="129"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="149"/>
     </row>
     <row r="20" spans="1:9" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="129"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="149"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="129"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="149"/>
     </row>
     <row r="22" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="134"/>
-      <c r="C24" s="133" t="s">
+      <c r="B24" s="154"/>
+      <c r="C24" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137" t="s">
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="134" t="s">
+      <c r="H24" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="137"/>
+      <c r="I24" s="157"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="135"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="71" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="138"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="57" t="str">
+      <c r="B26" s="139"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="56" t="str">
         <f>IF(ISERROR(IF(F26="","",ROUND(AVERAGE(C26:F26),0))),"",IF(F26="","",ROUND(AVERAGE(C26:F26),0)))</f>
         <v/>
       </c>
-      <c r="H26" s="143" t="str">
+      <c r="H26" s="140" t="str">
         <f>IF(G26="","",IF(G26&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I26" s="144"/>
+      <c r="I26" s="141"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="146"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="14">
+        <v>89</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="58" t="str">
+      <c r="F27" s="54"/>
+      <c r="G27" s="57" t="str">
         <f t="shared" ref="G27:G39" si="0">IF(ISERROR(IF(F27="","",ROUND(AVERAGE(C27:F27),0))),"",IF(F27="","",ROUND(AVERAGE(C27:F27),0)))</f>
         <v/>
       </c>
-      <c r="H27" s="147"/>
-      <c r="I27" s="148"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="129"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="146"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="14">
+        <v>90</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="58" t="str">
+      <c r="F28" s="54"/>
+      <c r="G28" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="147" t="str">
+      <c r="H28" s="142" t="str">
         <f t="shared" ref="H28:H39" si="1">IF(G28="","",IF(G28&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I28" s="148"/>
+      <c r="I28" s="129"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="14">
+        <v>92</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="58" t="str">
+      <c r="F29" s="54"/>
+      <c r="G29" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="151" t="str">
+      <c r="H29" s="143" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I29" s="152"/>
+      <c r="I29" s="130"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="146"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="14">
+        <v>99</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="58" t="str">
+      <c r="F30" s="54"/>
+      <c r="G30" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="153" t="str">
+      <c r="H30" s="135" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="154"/>
+      <c r="I30" s="126"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="155" t="s">
+      <c r="A31" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="156"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="14">
+        <v>87</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="58" t="str">
+      <c r="F31" s="54"/>
+      <c r="G31" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="153" t="str">
+      <c r="H31" s="135" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I31" s="154"/>
+      <c r="I31" s="126"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="58" t="str">
+      <c r="F32" s="54"/>
+      <c r="G32" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="157" t="str">
+      <c r="H32" s="125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I32" s="154"/>
+      <c r="I32" s="126"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="69" t="str">
+      <c r="B33" s="132"/>
+      <c r="C33" s="68">
         <f>IFERROR(AVERAGE(C34:C37), "")</f>
-        <v/>
-      </c>
-      <c r="D33" s="69" t="str">
+        <v>88</v>
+      </c>
+      <c r="D33" s="68" t="str">
         <f t="shared" ref="D33:F33" si="2">IFERROR(AVERAGE(D34:D37), "")</f>
         <v/>
       </c>
-      <c r="E33" s="69" t="str">
+      <c r="E33" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F33" s="69" t="str">
+      <c r="F33" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G33" s="70" t="str">
+      <c r="G33" s="69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4088,18 +4097,20 @@
         <f t="shared" ref="H33" si="3">IF(G33="","",IF(G33&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I33" s="148"/>
+      <c r="I33" s="129"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="161"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="14">
+        <v>88</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="58" t="str">
+      <c r="G34" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4107,56 +4118,62 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I34" s="148"/>
+      <c r="I34" s="129"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="145" t="s">
+      <c r="A35" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="146"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="14">
+        <v>88</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="58" t="str">
+      <c r="F35" s="54"/>
+      <c r="G35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="157" t="str">
+      <c r="H35" s="125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="154"/>
+      <c r="I35" s="126"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="149" t="s">
+      <c r="A36" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="14">
+        <v>88</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="58" t="str">
+      <c r="F36" s="54"/>
+      <c r="G36" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="157" t="str">
+      <c r="H36" s="125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I36" s="154"/>
+      <c r="I36" s="126"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="146"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="14">
+        <v>88</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="58" t="str">
+      <c r="F37" s="54"/>
+      <c r="G37" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4164,73 +4181,75 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I37" s="148"/>
+      <c r="I37" s="129"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="146"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="14">
+        <v>99</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="58" t="str">
+      <c r="F38" s="13"/>
+      <c r="G38" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="110" t="str">
+      <c r="H38" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I38" s="152"/>
+      <c r="I38" s="130"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="163"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="59" t="str">
+      <c r="B39" s="115"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H39" s="164" t="str">
+      <c r="H39" s="116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I39" s="165"/>
+      <c r="I39" s="117"/>
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="166" t="s">
+      <c r="A40" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="167"/>
-      <c r="C40" s="98" t="str">
-        <f>IF(ISERROR(IF(C39="","",ROUND(AVERAGE(C26:C33,C38),0))),"",IF(C39="","",ROUND(AVERAGE(C26:C33,C38:C39),0)))</f>
+      <c r="B40" s="119"/>
+      <c r="C40" s="97">
+        <f>IF(C38="", "", ROUND(AVERAGE(C26:C33, C38, C39), 0))</f>
+        <v>92</v>
+      </c>
+      <c r="D40" s="97" t="str">
+        <f t="shared" ref="D40:F40" si="4">IF(D38="", "", ROUND(AVERAGE(D26:D33, D38, D39), 0))</f>
         <v/>
       </c>
-      <c r="D40" s="5" t="str">
-        <f>IF(ISERROR(IF(D39="","",ROUND(AVERAGE(D26:D33,D38),0))),"",IF(D39="","",ROUND(AVERAGE(D26:D33,D38:D39),0)))</f>
-        <v/>
-      </c>
-      <c r="E40" s="5" t="str">
-        <f t="shared" ref="E40:F40" si="4">IF(ISERROR(IF(E39="","",ROUND(AVERAGE(E26:E33,E38),0))),"",IF(E39="","",ROUND(AVERAGE(E26:E33,E38:E39),0)))</f>
-        <v/>
-      </c>
-      <c r="F40" s="5" t="str">
+      <c r="E40" s="97" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G40" s="168" t="str">
+      <c r="F40" s="97" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G40" s="120" t="str">
         <f>IF(OR(G27="",G28="",G29="",G30="",G31="",G33="",G39="",G38=""),"",AVERAGE(G26:G33,G39))</f>
         <v/>
       </c>
-      <c r="H40" s="169"/>
-      <c r="I40" s="170"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
     </row>
     <row r="41" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -4244,20 +4263,20 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="111" t="s">
+      <c r="B42" s="110"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="111" t="s">
+      <c r="E42" s="110"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="111"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4266,15 +4285,15 @@
         <v>59</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="110"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="110"/>
+      <c r="H43" s="109"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,15 +4302,15 @@
         <v>34</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="110" t="s">
+      <c r="D44" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="110"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="110"/>
+      <c r="H44" s="109"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4300,15 +4319,15 @@
         <v>35</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="110"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="110"/>
+      <c r="H45" s="109"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4317,15 +4336,15 @@
         <v>36</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="110"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="110" t="s">
+      <c r="G46" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="110"/>
+      <c r="H46" s="109"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4334,77 +4353,77 @@
         <v>37</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="110" t="s">
+      <c r="D47" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="110"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="110" t="s">
+      <c r="G47" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="110"/>
+      <c r="H47" s="109"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="111" t="s">
+      <c r="F50" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="110"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
         <v>46</v>
@@ -4438,29 +4457,29 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="171"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="22"/>
-      <c r="F55" s="171" t="s">
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="21"/>
+      <c r="F55" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="110" t="s">
+      <c r="B56" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="110"/>
-      <c r="D56" s="7"/>
-      <c r="F56" s="110" t="s">
+      <c r="C56" s="109"/>
+      <c r="D56" s="6"/>
+      <c r="F56" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
@@ -4470,20 +4489,20 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="171" t="s">
+      <c r="A58" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="171"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="8"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="110"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
@@ -4496,69 +4515,6 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="C24:F24"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -4572,6 +4528,69 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B51:E51"/>
   </mergeCells>
   <pageMargins left="0.56000000000000005" right="0.5" top="0.34" bottom="0.14000000000000001" header="0.3" footer="0.14000000000000001"/>
   <pageSetup scale="96" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4605,288 +4624,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
     </row>
     <row r="2" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-    </row>
-    <row r="3" spans="1:12" s="78" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="99"/>
-      <c r="B3" s="101" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="1:12" s="77" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="98"/>
+      <c r="B3" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="102" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177" t="s">
+      <c r="A8" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="178"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="182"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="180"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="182"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="183"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="184"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="100"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
-      <c r="J14" s="84"/>
-    </row>
-    <row r="15" spans="1:12" s="85" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="172" t="s">
+      <c r="B14" s="82"/>
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="1:12" s="84" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
-      <c r="C16" s="82"/>
-      <c r="J16" s="84"/>
-    </row>
-    <row r="17" spans="1:12" s="85" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B17" s="172" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="81"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:12" s="84" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="88"/>
-      <c r="C18" s="82"/>
-      <c r="J18" s="84"/>
-    </row>
-    <row r="19" spans="1:12" s="85" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B19" s="172" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="81"/>
+      <c r="J18" s="83"/>
+    </row>
+    <row r="19" spans="1:12" s="84" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B19" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="87"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
-      <c r="J20" s="84"/>
-    </row>
-    <row r="21" spans="1:12" s="85" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B21" s="172" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="84"/>
+      <c r="J20" s="83"/>
+    </row>
+    <row r="21" spans="1:12" s="84" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B21" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4896,33 +4915,33 @@
     <row r="28" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:12" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" s="84" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
     </row>
     <row r="33" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="175" t="s">
+      <c r="I33" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
@@ -4942,6 +4961,6 @@
     <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" scale="90" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="256" scale="89" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>